--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_100ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_100ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2152,28 +2152,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>900.3065716006963</v>
+        <v>1047.032905429436</v>
       </c>
       <c r="AB2" t="n">
-        <v>1231.839169986805</v>
+        <v>1432.596613040287</v>
       </c>
       <c r="AC2" t="n">
-        <v>1114.274168500398</v>
+        <v>1295.871602953696</v>
       </c>
       <c r="AD2" t="n">
-        <v>900306.5716006963</v>
+        <v>1047032.905429436</v>
       </c>
       <c r="AE2" t="n">
-        <v>1231839.169986805</v>
+        <v>1432596.613040287</v>
       </c>
       <c r="AF2" t="n">
         <v>5.386589035397427e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.1375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1114274.168500398</v>
+        <v>1295871.602953696</v>
       </c>
     </row>
     <row r="3">
@@ -2258,28 +2258,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>337.9147280675598</v>
+        <v>416.2228982303466</v>
       </c>
       <c r="AB3" t="n">
-        <v>462.3498386877028</v>
+        <v>569.4945318170738</v>
       </c>
       <c r="AC3" t="n">
-        <v>418.2238189954218</v>
+        <v>515.1427729910469</v>
       </c>
       <c r="AD3" t="n">
-        <v>337914.7280675598</v>
+        <v>416222.8982303466</v>
       </c>
       <c r="AE3" t="n">
-        <v>462349.8386877028</v>
+        <v>569494.5318170738</v>
       </c>
       <c r="AF3" t="n">
         <v>1.012113711832821e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.50833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>418223.8189954218</v>
+        <v>515142.7729910469</v>
       </c>
     </row>
     <row r="4">
@@ -2364,28 +2364,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>279.1314914048221</v>
+        <v>357.3713307300472</v>
       </c>
       <c r="AB4" t="n">
-        <v>381.9200209523718</v>
+        <v>488.9712208152472</v>
       </c>
       <c r="AC4" t="n">
-        <v>345.4701101807926</v>
+        <v>442.3044937760578</v>
       </c>
       <c r="AD4" t="n">
-        <v>279131.4914048221</v>
+        <v>357371.3307300473</v>
       </c>
       <c r="AE4" t="n">
-        <v>381920.0209523718</v>
+        <v>488971.2208152472</v>
       </c>
       <c r="AF4" t="n">
         <v>1.124817728573444e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.95416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>345470.1101807926</v>
+        <v>442304.4937760578</v>
       </c>
     </row>
     <row r="5">
@@ -2470,28 +2470,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>278.8773996090216</v>
+        <v>357.1172389342468</v>
       </c>
       <c r="AB5" t="n">
-        <v>381.5723613476188</v>
+        <v>488.6235612104941</v>
       </c>
       <c r="AC5" t="n">
-        <v>345.1556307207738</v>
+        <v>441.990014316039</v>
       </c>
       <c r="AD5" t="n">
-        <v>278877.3996090216</v>
+        <v>357117.2389342468</v>
       </c>
       <c r="AE5" t="n">
-        <v>381572.3613476187</v>
+        <v>488623.5612104941</v>
       </c>
       <c r="AF5" t="n">
         <v>1.128207889504813e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.9125</v>
       </c>
       <c r="AH5" t="n">
-        <v>345155.6307207738</v>
+        <v>441990.014316039</v>
       </c>
     </row>
   </sheetData>
@@ -2767,28 +2767,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>568.0705658057125</v>
+        <v>684.202990188229</v>
       </c>
       <c r="AB2" t="n">
-        <v>777.2592096399877</v>
+        <v>936.156716081119</v>
       </c>
       <c r="AC2" t="n">
-        <v>703.0786815620987</v>
+        <v>846.8112330025394</v>
       </c>
       <c r="AD2" t="n">
-        <v>568070.5658057125</v>
+        <v>684202.990188229</v>
       </c>
       <c r="AE2" t="n">
-        <v>777259.2096399877</v>
+        <v>936156.716081119</v>
       </c>
       <c r="AF2" t="n">
         <v>7.596150131796224e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.60833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>703078.6815620987</v>
+        <v>846811.2330025395</v>
       </c>
     </row>
     <row r="3">
@@ -2873,28 +2873,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>281.1141959022977</v>
+        <v>348.8107201453501</v>
       </c>
       <c r="AB3" t="n">
-        <v>384.6328447165671</v>
+        <v>477.25821574578</v>
       </c>
       <c r="AC3" t="n">
-        <v>347.9240258524052</v>
+        <v>431.7093614711148</v>
       </c>
       <c r="AD3" t="n">
-        <v>281114.1959022977</v>
+        <v>348810.7201453501</v>
       </c>
       <c r="AE3" t="n">
-        <v>384632.8447165671</v>
+        <v>477258.21574578</v>
       </c>
       <c r="AF3" t="n">
         <v>1.19729009863564e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.34166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>347924.0258524052</v>
+        <v>431709.3614711148</v>
       </c>
     </row>
     <row r="4">
@@ -2979,28 +2979,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>280.3231867583496</v>
+        <v>348.019711001402</v>
       </c>
       <c r="AB4" t="n">
-        <v>383.5505511089568</v>
+        <v>476.1759221381698</v>
       </c>
       <c r="AC4" t="n">
-        <v>346.9450248276966</v>
+        <v>430.7303604464062</v>
       </c>
       <c r="AD4" t="n">
-        <v>280323.1867583496</v>
+        <v>348019.711001402</v>
       </c>
       <c r="AE4" t="n">
-        <v>383550.5511089567</v>
+        <v>476175.9221381698</v>
       </c>
       <c r="AF4" t="n">
         <v>1.20355496472372e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.26666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>346945.0248276966</v>
+        <v>430730.3604464062</v>
       </c>
     </row>
   </sheetData>
@@ -3276,28 +3276,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>292.7892733824892</v>
+        <v>376.9544436212471</v>
       </c>
       <c r="AB2" t="n">
-        <v>400.6072007930317</v>
+        <v>515.7656998189533</v>
       </c>
       <c r="AC2" t="n">
-        <v>362.3738118050817</v>
+        <v>466.5417453099378</v>
       </c>
       <c r="AD2" t="n">
-        <v>292789.2733824892</v>
+        <v>376954.4436212471</v>
       </c>
       <c r="AE2" t="n">
-        <v>400607.2007930317</v>
+        <v>515765.6998189533</v>
       </c>
       <c r="AF2" t="n">
         <v>1.418145244047144e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.90416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>362373.8118050817</v>
+        <v>466541.7453099377</v>
       </c>
     </row>
     <row r="3">
@@ -3382,28 +3382,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>293.1599278308155</v>
+        <v>377.3250980695734</v>
       </c>
       <c r="AB3" t="n">
-        <v>401.114346561352</v>
+        <v>516.2728455872737</v>
       </c>
       <c r="AC3" t="n">
-        <v>362.8325562930571</v>
+        <v>467.0004897979131</v>
       </c>
       <c r="AD3" t="n">
-        <v>293159.9278308155</v>
+        <v>377325.0980695734</v>
       </c>
       <c r="AE3" t="n">
-        <v>401114.346561352</v>
+        <v>516272.8455872736</v>
       </c>
       <c r="AF3" t="n">
         <v>1.421194276456965e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.86666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>362832.556293057</v>
+        <v>467000.4897979131</v>
       </c>
     </row>
   </sheetData>
@@ -3679,28 +3679,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>304.77163073383</v>
+        <v>380.5648719539566</v>
       </c>
       <c r="AB2" t="n">
-        <v>417.0019907454342</v>
+        <v>520.7056471446232</v>
       </c>
       <c r="AC2" t="n">
-        <v>377.203906014659</v>
+        <v>471.0102309961053</v>
       </c>
       <c r="AD2" t="n">
-        <v>304771.63073383</v>
+        <v>380564.8719539567</v>
       </c>
       <c r="AE2" t="n">
-        <v>417001.9907454342</v>
+        <v>520705.6471446232</v>
       </c>
       <c r="AF2" t="n">
         <v>1.282615759771364e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.18333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>377203.906014659</v>
+        <v>471010.2309961054</v>
       </c>
     </row>
     <row r="3">
@@ -3785,28 +3785,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>281.6722253528334</v>
+        <v>357.4313011541793</v>
       </c>
       <c r="AB3" t="n">
-        <v>385.3963652293119</v>
+        <v>489.0532749952532</v>
       </c>
       <c r="AC3" t="n">
-        <v>348.6146770390214</v>
+        <v>442.3787168202879</v>
       </c>
       <c r="AD3" t="n">
-        <v>281672.2253528335</v>
+        <v>357431.3011541793</v>
       </c>
       <c r="AE3" t="n">
-        <v>385396.3652293119</v>
+        <v>489053.2749952532</v>
       </c>
       <c r="AF3" t="n">
         <v>1.343695073093551e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.45</v>
       </c>
       <c r="AH3" t="n">
-        <v>348614.6770390214</v>
+        <v>442378.7168202879</v>
       </c>
     </row>
   </sheetData>
@@ -4082,28 +4082,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>319.4568878664506</v>
+        <v>411.9351543594415</v>
       </c>
       <c r="AB2" t="n">
-        <v>437.0950074221061</v>
+        <v>563.6278514909924</v>
       </c>
       <c r="AC2" t="n">
-        <v>395.3792733804353</v>
+        <v>509.8360004013492</v>
       </c>
       <c r="AD2" t="n">
-        <v>319456.8878664506</v>
+        <v>411935.1543594415</v>
       </c>
       <c r="AE2" t="n">
-        <v>437095.0074221061</v>
+        <v>563627.8514909924</v>
       </c>
       <c r="AF2" t="n">
         <v>1.459431344050784e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.8125</v>
       </c>
       <c r="AH2" t="n">
-        <v>395379.2733804354</v>
+        <v>509836.0004013492</v>
       </c>
     </row>
     <row r="3">
@@ -4188,28 +4188,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>320.2896105481536</v>
+        <v>412.7678770411445</v>
       </c>
       <c r="AB3" t="n">
-        <v>438.2343753323441</v>
+        <v>564.7672194012304</v>
       </c>
       <c r="AC3" t="n">
-        <v>396.4099016164332</v>
+        <v>510.8666286373469</v>
       </c>
       <c r="AD3" t="n">
-        <v>320289.6105481536</v>
+        <v>412767.8770411445</v>
       </c>
       <c r="AE3" t="n">
-        <v>438234.3753323441</v>
+        <v>564767.2194012303</v>
       </c>
       <c r="AF3" t="n">
         <v>1.461869330403662e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.77916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>396409.9016164332</v>
+        <v>510866.628637347</v>
       </c>
     </row>
   </sheetData>
@@ -4485,28 +4485,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>640.3384062684247</v>
+        <v>756.7782308466415</v>
       </c>
       <c r="AB2" t="n">
-        <v>876.1392571931776</v>
+        <v>1035.457362143605</v>
       </c>
       <c r="AC2" t="n">
-        <v>792.5217561558304</v>
+        <v>936.6347647741542</v>
       </c>
       <c r="AD2" t="n">
-        <v>640338.4062684247</v>
+        <v>756778.2308466415</v>
       </c>
       <c r="AE2" t="n">
-        <v>876139.2571931776</v>
+        <v>1035457.362143605</v>
       </c>
       <c r="AF2" t="n">
         <v>6.970220475214753e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.04166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>792521.7561558305</v>
+        <v>936634.7647741542</v>
       </c>
     </row>
     <row r="3">
@@ -4591,28 +4591,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>287.3784966184759</v>
+        <v>355.2736777025588</v>
       </c>
       <c r="AB3" t="n">
-        <v>393.2039373178849</v>
+        <v>486.1011194011172</v>
       </c>
       <c r="AC3" t="n">
-        <v>355.6771054054572</v>
+        <v>439.7083108126798</v>
       </c>
       <c r="AD3" t="n">
-        <v>287378.4966184759</v>
+        <v>355273.6777025588</v>
       </c>
       <c r="AE3" t="n">
-        <v>393203.9373178849</v>
+        <v>486101.1194011172</v>
       </c>
       <c r="AF3" t="n">
         <v>1.162615078225953e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.4125</v>
       </c>
       <c r="AH3" t="n">
-        <v>355677.1054054572</v>
+        <v>439708.3108126798</v>
       </c>
     </row>
     <row r="4">
@@ -4697,28 +4697,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>282.8758302096298</v>
+        <v>350.7710112937127</v>
       </c>
       <c r="AB4" t="n">
-        <v>387.0431904936793</v>
+        <v>479.9403725769116</v>
       </c>
       <c r="AC4" t="n">
-        <v>350.1043316114914</v>
+        <v>434.1355370187139</v>
       </c>
       <c r="AD4" t="n">
-        <v>282875.8302096298</v>
+        <v>350771.0112937127</v>
       </c>
       <c r="AE4" t="n">
-        <v>387043.1904936793</v>
+        <v>479940.3725769116</v>
       </c>
       <c r="AF4" t="n">
         <v>1.179990353732547e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.2</v>
       </c>
       <c r="AH4" t="n">
-        <v>350104.3316114914</v>
+        <v>434135.5370187139</v>
       </c>
     </row>
     <row r="5">
@@ -4803,28 +4803,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>282.7998015032687</v>
+        <v>350.6949825873516</v>
       </c>
       <c r="AB5" t="n">
-        <v>386.9391646634863</v>
+        <v>479.8363467467186</v>
       </c>
       <c r="AC5" t="n">
-        <v>350.0102338605308</v>
+        <v>434.0414392677533</v>
       </c>
       <c r="AD5" t="n">
-        <v>282799.8015032687</v>
+        <v>350694.9825873516</v>
       </c>
       <c r="AE5" t="n">
-        <v>386939.1646634863</v>
+        <v>479836.3467467186</v>
       </c>
       <c r="AF5" t="n">
         <v>1.183248217890033e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.1625</v>
       </c>
       <c r="AH5" t="n">
-        <v>350010.2338605308</v>
+        <v>434041.4392677533</v>
       </c>
     </row>
   </sheetData>
@@ -5100,28 +5100,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>347.4045880589058</v>
+        <v>448.4551246345385</v>
       </c>
       <c r="AB2" t="n">
-        <v>475.3342837909374</v>
+        <v>613.5960859687593</v>
       </c>
       <c r="AC2" t="n">
-        <v>429.9690468817869</v>
+        <v>555.0353367114155</v>
       </c>
       <c r="AD2" t="n">
-        <v>347404.5880589058</v>
+        <v>448455.1246345385</v>
       </c>
       <c r="AE2" t="n">
-        <v>475334.2837909374</v>
+        <v>613596.0859687594</v>
       </c>
       <c r="AF2" t="n">
         <v>1.464515639425315e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.5125</v>
       </c>
       <c r="AH2" t="n">
-        <v>429969.0468817869</v>
+        <v>555035.3367114156</v>
       </c>
     </row>
   </sheetData>
@@ -5397,28 +5397,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>419.3162635415402</v>
+        <v>505.579103204954</v>
       </c>
       <c r="AB2" t="n">
-        <v>573.7270107054949</v>
+        <v>691.7556335808745</v>
       </c>
       <c r="AC2" t="n">
-        <v>518.9713100346786</v>
+        <v>625.7354467970445</v>
       </c>
       <c r="AD2" t="n">
-        <v>419316.2635415402</v>
+        <v>505579.103204954</v>
       </c>
       <c r="AE2" t="n">
-        <v>573727.0107054949</v>
+        <v>691755.6335808744</v>
       </c>
       <c r="AF2" t="n">
         <v>9.801473169719729e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.05416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>518971.3100346786</v>
+        <v>625735.4467970445</v>
       </c>
     </row>
     <row r="3">
@@ -5503,28 +5503,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>275.3778286490091</v>
+        <v>352.0512134989727</v>
       </c>
       <c r="AB3" t="n">
-        <v>376.7840939699552</v>
+        <v>481.6920017126835</v>
       </c>
       <c r="AC3" t="n">
-        <v>340.8243488612591</v>
+        <v>435.7199931281947</v>
       </c>
       <c r="AD3" t="n">
-        <v>275377.8286490091</v>
+        <v>352051.2134989727</v>
       </c>
       <c r="AE3" t="n">
-        <v>376784.0939699552</v>
+        <v>481692.0017126835</v>
       </c>
       <c r="AF3" t="n">
         <v>1.267827501134895e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.72916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>340824.3488612591</v>
+        <v>435719.9931281948</v>
       </c>
     </row>
     <row r="4">
@@ -5609,28 +5609,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>275.3812476261436</v>
+        <v>352.0546324761071</v>
       </c>
       <c r="AB4" t="n">
-        <v>376.7887719653052</v>
+        <v>481.6966797080336</v>
       </c>
       <c r="AC4" t="n">
-        <v>340.8285803952985</v>
+        <v>435.7242246622342</v>
       </c>
       <c r="AD4" t="n">
-        <v>275381.2476261436</v>
+        <v>352054.6324761072</v>
       </c>
       <c r="AE4" t="n">
-        <v>376788.7719653052</v>
+        <v>481696.6797080336</v>
       </c>
       <c r="AF4" t="n">
         <v>1.271054323577601e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.69166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>340828.5803952985</v>
+        <v>435724.2246622342</v>
       </c>
     </row>
   </sheetData>
@@ -5906,28 +5906,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>513.6482372337995</v>
+        <v>619.7087467750437</v>
       </c>
       <c r="AB2" t="n">
-        <v>702.7961787442099</v>
+        <v>847.9128469579896</v>
       </c>
       <c r="AC2" t="n">
-        <v>635.7222978254937</v>
+        <v>766.9892348974734</v>
       </c>
       <c r="AD2" t="n">
-        <v>513648.2372337995</v>
+        <v>619708.7467750437</v>
       </c>
       <c r="AE2" t="n">
-        <v>702796.1787442099</v>
+        <v>847912.8469579896</v>
       </c>
       <c r="AF2" t="n">
         <v>8.260562494230065e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.3375</v>
       </c>
       <c r="AH2" t="n">
-        <v>635722.2978254937</v>
+        <v>766989.2348974734</v>
       </c>
     </row>
     <row r="3">
@@ -6012,28 +6012,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>278.1914076695459</v>
+        <v>345.681720895851</v>
       </c>
       <c r="AB3" t="n">
-        <v>380.6337569121994</v>
+        <v>472.9769809309109</v>
       </c>
       <c r="AC3" t="n">
-        <v>344.3066053753314</v>
+        <v>427.836721698226</v>
       </c>
       <c r="AD3" t="n">
-        <v>278191.4076695458</v>
+        <v>345681.720895851</v>
       </c>
       <c r="AE3" t="n">
-        <v>380633.7569121994</v>
+        <v>472976.9809309109</v>
       </c>
       <c r="AF3" t="n">
         <v>1.223241793840101e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.40833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>344306.6053753314</v>
+        <v>427836.721698226</v>
       </c>
     </row>
     <row r="4">
@@ -6118,28 +6118,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>278.6693446413427</v>
+        <v>346.1596578676478</v>
       </c>
       <c r="AB4" t="n">
-        <v>381.287691362103</v>
+        <v>473.6309153808145</v>
       </c>
       <c r="AC4" t="n">
-        <v>344.8981292391389</v>
+        <v>428.4282455620335</v>
       </c>
       <c r="AD4" t="n">
-        <v>278669.3446413426</v>
+        <v>346159.6578676478</v>
       </c>
       <c r="AE4" t="n">
-        <v>381287.691362103</v>
+        <v>473630.9153808145</v>
       </c>
       <c r="AF4" t="n">
         <v>1.223495613551093e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.40833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>344898.1292391389</v>
+        <v>428428.2455620335</v>
       </c>
     </row>
   </sheetData>
@@ -6415,28 +6415,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>798.5559361178892</v>
+        <v>935.1341405662009</v>
       </c>
       <c r="AB2" t="n">
-        <v>1092.619461598004</v>
+        <v>1279.491786329312</v>
       </c>
       <c r="AC2" t="n">
-        <v>988.3413936841351</v>
+        <v>1157.378886020042</v>
       </c>
       <c r="AD2" t="n">
-        <v>798555.9361178892</v>
+        <v>935134.1405662009</v>
       </c>
       <c r="AE2" t="n">
-        <v>1092619.461598004</v>
+        <v>1279491.786329312</v>
       </c>
       <c r="AF2" t="n">
         <v>5.87875898955901e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.25416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>988341.3936841352</v>
+        <v>1157378.886020042</v>
       </c>
     </row>
     <row r="3">
@@ -6521,28 +6521,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>322.5630367253427</v>
+        <v>390.8697271738175</v>
       </c>
       <c r="AB3" t="n">
-        <v>441.3449773244587</v>
+        <v>534.8052046745637</v>
       </c>
       <c r="AC3" t="n">
-        <v>399.2236321201777</v>
+        <v>483.7641465442416</v>
       </c>
       <c r="AD3" t="n">
-        <v>322563.0367253427</v>
+        <v>390869.7271738175</v>
       </c>
       <c r="AE3" t="n">
-        <v>441344.9773244587</v>
+        <v>534805.2046745637</v>
       </c>
       <c r="AF3" t="n">
         <v>1.062614433175211e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.07916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>399223.6321201777</v>
+        <v>483764.1465442416</v>
       </c>
     </row>
     <row r="4">
@@ -6627,28 +6627,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>276.3639786211477</v>
+        <v>354.3983275977556</v>
       </c>
       <c r="AB4" t="n">
-        <v>378.1333878677015</v>
+        <v>484.9034267700044</v>
       </c>
       <c r="AC4" t="n">
-        <v>342.0448680431504</v>
+        <v>438.6249242853082</v>
       </c>
       <c r="AD4" t="n">
-        <v>276363.9786211477</v>
+        <v>354398.3275977556</v>
       </c>
       <c r="AE4" t="n">
-        <v>378133.3878677015</v>
+        <v>484903.4267700044</v>
       </c>
       <c r="AF4" t="n">
         <v>1.146063815050943e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.97916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>342044.8680431504</v>
+        <v>438624.9242853082</v>
       </c>
     </row>
     <row r="5">
@@ -6733,28 +6733,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>276.0909139545096</v>
+        <v>354.1252629311176</v>
       </c>
       <c r="AB5" t="n">
-        <v>377.7597687440444</v>
+        <v>484.5298076463473</v>
       </c>
       <c r="AC5" t="n">
-        <v>341.7069066042773</v>
+        <v>438.2869628464352</v>
       </c>
       <c r="AD5" t="n">
-        <v>276090.9139545096</v>
+        <v>354125.2629311176</v>
       </c>
       <c r="AE5" t="n">
-        <v>377759.7687440444</v>
+        <v>484529.8076463473</v>
       </c>
       <c r="AF5" t="n">
         <v>1.14944793744959e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.94166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>341706.9066042773</v>
+        <v>438286.9628464353</v>
       </c>
     </row>
   </sheetData>
@@ -7030,28 +7030,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>327.1112377518441</v>
+        <v>412.7547502359179</v>
       </c>
       <c r="AB2" t="n">
-        <v>447.5680266213859</v>
+        <v>564.7492587272054</v>
       </c>
       <c r="AC2" t="n">
-        <v>404.8527623263106</v>
+        <v>510.850382104843</v>
       </c>
       <c r="AD2" t="n">
-        <v>327111.2377518441</v>
+        <v>412754.7502359179</v>
       </c>
       <c r="AE2" t="n">
-        <v>447568.0266213858</v>
+        <v>564749.2587272055</v>
       </c>
       <c r="AF2" t="n">
         <v>1.180499461062597e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.92083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>404852.7623263106</v>
+        <v>510850.382104843</v>
       </c>
     </row>
     <row r="3">
@@ -7136,28 +7136,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>282.7336201840958</v>
+        <v>349.3386597196147</v>
       </c>
       <c r="AB3" t="n">
-        <v>386.8486124628802</v>
+        <v>477.9805659623389</v>
       </c>
       <c r="AC3" t="n">
-        <v>349.9283238348598</v>
+        <v>432.3627715968302</v>
       </c>
       <c r="AD3" t="n">
-        <v>282733.6201840958</v>
+        <v>349338.6597196147</v>
       </c>
       <c r="AE3" t="n">
-        <v>386848.6124628802</v>
+        <v>477980.5659623389</v>
       </c>
       <c r="AF3" t="n">
         <v>1.316172522904993e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.175</v>
       </c>
       <c r="AH3" t="n">
-        <v>349928.3238348598</v>
+        <v>432362.7715968302</v>
       </c>
     </row>
     <row r="4">
@@ -7242,28 +7242,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>282.866673967251</v>
+        <v>349.4717135027698</v>
       </c>
       <c r="AB4" t="n">
-        <v>387.0306625189118</v>
+        <v>478.1626160183706</v>
       </c>
       <c r="AC4" t="n">
-        <v>350.0929992890525</v>
+        <v>432.5274470510229</v>
       </c>
       <c r="AD4" t="n">
-        <v>282866.673967251</v>
+        <v>349471.7135027698</v>
       </c>
       <c r="AE4" t="n">
-        <v>387030.6625189118</v>
+        <v>478162.6160183706</v>
       </c>
       <c r="AF4" t="n">
         <v>1.319240747625104e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.14166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>350092.9992890525</v>
+        <v>432527.447051023</v>
       </c>
     </row>
   </sheetData>
@@ -7539,28 +7539,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>291.8924928500822</v>
+        <v>367.0326399915522</v>
       </c>
       <c r="AB2" t="n">
-        <v>399.3801861054276</v>
+        <v>502.1902503737214</v>
       </c>
       <c r="AC2" t="n">
-        <v>361.2639016771365</v>
+        <v>454.2619177064958</v>
       </c>
       <c r="AD2" t="n">
-        <v>291892.4928500822</v>
+        <v>367032.6399915522</v>
       </c>
       <c r="AE2" t="n">
-        <v>399380.1861054276</v>
+        <v>502190.2503737214</v>
       </c>
       <c r="AF2" t="n">
         <v>1.390879952763684e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.32916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>361263.9016771365</v>
+        <v>454261.9177064957</v>
       </c>
     </row>
     <row r="3">
@@ -7645,28 +7645,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>291.503156835144</v>
+        <v>366.6433039766142</v>
       </c>
       <c r="AB3" t="n">
-        <v>398.8474793934965</v>
+        <v>501.6575436617903</v>
       </c>
       <c r="AC3" t="n">
-        <v>360.7820357461336</v>
+        <v>453.7800517754928</v>
       </c>
       <c r="AD3" t="n">
-        <v>291503.156835144</v>
+        <v>366643.3039766141</v>
       </c>
       <c r="AE3" t="n">
-        <v>398847.4793934965</v>
+        <v>501657.5436617903</v>
       </c>
       <c r="AF3" t="n">
         <v>1.397039836544296e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.25833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>360782.0357461336</v>
+        <v>453780.0517754928</v>
       </c>
     </row>
   </sheetData>
@@ -13067,28 +13067,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>305.3506196958003</v>
+        <v>389.1043264546711</v>
       </c>
       <c r="AB2" t="n">
-        <v>417.7941889863923</v>
+        <v>532.3897055266445</v>
       </c>
       <c r="AC2" t="n">
-        <v>377.9204979673573</v>
+        <v>481.5791792448256</v>
       </c>
       <c r="AD2" t="n">
-        <v>305350.6196958004</v>
+        <v>389104.3264546711</v>
       </c>
       <c r="AE2" t="n">
-        <v>417794.1889863923</v>
+        <v>532389.7055266446</v>
       </c>
       <c r="AF2" t="n">
         <v>1.439762144470885e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.71666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>377920.4979673573</v>
+        <v>481579.1792448256</v>
       </c>
     </row>
     <row r="3">
@@ -13173,28 +13173,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>305.9014993656451</v>
+        <v>389.6552061245159</v>
       </c>
       <c r="AB3" t="n">
-        <v>418.5479268537696</v>
+        <v>533.143443394022</v>
       </c>
       <c r="AC3" t="n">
-        <v>378.6023001505499</v>
+        <v>482.2609814280182</v>
       </c>
       <c r="AD3" t="n">
-        <v>305901.4993656451</v>
+        <v>389655.2061245159</v>
       </c>
       <c r="AE3" t="n">
-        <v>418547.9268537696</v>
+        <v>533143.4433940221</v>
       </c>
       <c r="AF3" t="n">
         <v>1.442517025689577e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.68333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>378602.3001505499</v>
+        <v>482260.9814280182</v>
       </c>
     </row>
   </sheetData>
@@ -13470,28 +13470,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>393.7154040805486</v>
+        <v>503.0265042803308</v>
       </c>
       <c r="AB2" t="n">
-        <v>538.6987853607579</v>
+        <v>688.2630551194882</v>
       </c>
       <c r="AC2" t="n">
-        <v>487.2861293544202</v>
+        <v>622.5761951221482</v>
       </c>
       <c r="AD2" t="n">
-        <v>393715.4040805486</v>
+        <v>503026.5042803307</v>
       </c>
       <c r="AE2" t="n">
-        <v>538698.785360758</v>
+        <v>688263.0551194882</v>
       </c>
       <c r="AF2" t="n">
         <v>1.436057782911486e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.49166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>487286.1293544202</v>
+        <v>622576.1951221481</v>
       </c>
     </row>
   </sheetData>
@@ -13767,28 +13767,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>464.4715940583188</v>
+        <v>560.6086261727863</v>
       </c>
       <c r="AB2" t="n">
-        <v>635.5105260311375</v>
+        <v>767.049454636675</v>
       </c>
       <c r="AC2" t="n">
-        <v>574.85829337135</v>
+        <v>693.8433312468211</v>
       </c>
       <c r="AD2" t="n">
-        <v>464471.5940583188</v>
+        <v>560608.6261727863</v>
       </c>
       <c r="AE2" t="n">
-        <v>635510.5260311374</v>
+        <v>767049.4546366751</v>
       </c>
       <c r="AF2" t="n">
         <v>8.990850521663451e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.15833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>574858.29337135</v>
+        <v>693843.3312468211</v>
       </c>
     </row>
     <row r="3">
@@ -13873,28 +13873,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>276.7661682602016</v>
+        <v>353.6954843791584</v>
       </c>
       <c r="AB3" t="n">
-        <v>378.6836814752097</v>
+        <v>483.9417656710652</v>
       </c>
       <c r="AC3" t="n">
-        <v>342.5426424010998</v>
+        <v>437.755042771952</v>
       </c>
       <c r="AD3" t="n">
-        <v>276766.1682602016</v>
+        <v>353695.4843791584</v>
       </c>
       <c r="AE3" t="n">
-        <v>378683.6814752097</v>
+        <v>483941.7656710652</v>
       </c>
       <c r="AF3" t="n">
         <v>1.244582515608884e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.5625</v>
       </c>
       <c r="AH3" t="n">
-        <v>342542.6424010998</v>
+        <v>437755.042771952</v>
       </c>
     </row>
     <row r="4">
@@ -13979,28 +13979,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>276.6696112649543</v>
+        <v>353.5989273839111</v>
       </c>
       <c r="AB4" t="n">
-        <v>378.5515679345183</v>
+        <v>483.8096521303739</v>
       </c>
       <c r="AC4" t="n">
-        <v>342.4231375913096</v>
+        <v>437.6355379621617</v>
       </c>
       <c r="AD4" t="n">
-        <v>276669.6112649543</v>
+        <v>353598.9273839111</v>
       </c>
       <c r="AE4" t="n">
-        <v>378551.5679345183</v>
+        <v>483809.6521303739</v>
       </c>
       <c r="AF4" t="n">
         <v>1.247888295191111e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.525</v>
       </c>
       <c r="AH4" t="n">
-        <v>342423.1375913096</v>
+        <v>437635.5379621617</v>
       </c>
     </row>
   </sheetData>
@@ -14276,28 +14276,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>709.1525081518796</v>
+        <v>835.7247824603587</v>
       </c>
       <c r="AB2" t="n">
-        <v>970.2937472540355</v>
+        <v>1143.475516937541</v>
       </c>
       <c r="AC2" t="n">
-        <v>877.6902738319369</v>
+        <v>1034.343818478989</v>
       </c>
       <c r="AD2" t="n">
-        <v>709152.5081518797</v>
+        <v>835724.7824603587</v>
       </c>
       <c r="AE2" t="n">
-        <v>970293.7472540354</v>
+        <v>1143475.516937541</v>
       </c>
       <c r="AF2" t="n">
         <v>6.406917925978064e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.55833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>877690.2738319369</v>
+        <v>1034343.818478989</v>
       </c>
     </row>
     <row r="3">
@@ -14382,28 +14382,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>298.7854367245933</v>
+        <v>376.6419016494918</v>
       </c>
       <c r="AB3" t="n">
-        <v>408.8114160097555</v>
+        <v>515.3380661048191</v>
       </c>
       <c r="AC3" t="n">
-        <v>369.7950282362096</v>
+        <v>466.1549243572928</v>
       </c>
       <c r="AD3" t="n">
-        <v>298785.4367245933</v>
+        <v>376641.9016494919</v>
       </c>
       <c r="AE3" t="n">
-        <v>408811.4160097555</v>
+        <v>515338.0661048191</v>
       </c>
       <c r="AF3" t="n">
         <v>1.113634823106941e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.70416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>369795.0282362096</v>
+        <v>466154.9243572928</v>
       </c>
     </row>
     <row r="4">
@@ -14488,28 +14488,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>285.3794822248342</v>
+        <v>353.4664639678493</v>
       </c>
       <c r="AB4" t="n">
-        <v>390.4687976342137</v>
+        <v>483.6284098406447</v>
       </c>
       <c r="AC4" t="n">
-        <v>353.203003614403</v>
+        <v>437.4715931821892</v>
       </c>
       <c r="AD4" t="n">
-        <v>285379.4822248343</v>
+        <v>353466.4639678493</v>
       </c>
       <c r="AE4" t="n">
-        <v>390468.7976342137</v>
+        <v>483628.4098406447</v>
       </c>
       <c r="AF4" t="n">
         <v>1.159227270160094e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.125</v>
       </c>
       <c r="AH4" t="n">
-        <v>353203.003614403</v>
+        <v>437471.5931821892</v>
       </c>
     </row>
     <row r="5">
@@ -14594,28 +14594,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>285.2655669888244</v>
+        <v>353.3525487318394</v>
       </c>
       <c r="AB5" t="n">
-        <v>390.3129337827194</v>
+        <v>483.4725459891504</v>
       </c>
       <c r="AC5" t="n">
-        <v>353.0620151901389</v>
+        <v>437.3306047579251</v>
       </c>
       <c r="AD5" t="n">
-        <v>285265.5669888244</v>
+        <v>353352.5487318394</v>
       </c>
       <c r="AE5" t="n">
-        <v>390312.9337827194</v>
+        <v>483472.5459891504</v>
       </c>
       <c r="AF5" t="n">
         <v>1.162489488354415e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.0875</v>
       </c>
       <c r="AH5" t="n">
-        <v>353062.0151901389</v>
+        <v>437330.6047579251</v>
       </c>
     </row>
   </sheetData>
@@ -14891,28 +14891,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>489.2766208450583</v>
+        <v>633.682999731291</v>
       </c>
       <c r="AB2" t="n">
-        <v>669.4498580013031</v>
+        <v>867.0330363532576</v>
       </c>
       <c r="AC2" t="n">
-        <v>605.5585031324348</v>
+        <v>784.2846202522112</v>
       </c>
       <c r="AD2" t="n">
-        <v>489276.6208450584</v>
+        <v>633682.9997312911</v>
       </c>
       <c r="AE2" t="n">
-        <v>669449.8580013032</v>
+        <v>867033.0363532576</v>
       </c>
       <c r="AF2" t="n">
         <v>1.333070098837942e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.80416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>605558.5031324348</v>
+        <v>784284.6202522112</v>
       </c>
     </row>
   </sheetData>
@@ -15188,28 +15188,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>283.7639847496064</v>
+        <v>368.6836246566756</v>
       </c>
       <c r="AB2" t="n">
-        <v>388.2584027178884</v>
+        <v>504.4492004288461</v>
       </c>
       <c r="AC2" t="n">
-        <v>351.203565686583</v>
+        <v>456.3052767388157</v>
       </c>
       <c r="AD2" t="n">
-        <v>283763.9847496065</v>
+        <v>368683.6246566756</v>
       </c>
       <c r="AE2" t="n">
-        <v>388258.4027178884</v>
+        <v>504449.2004288461</v>
       </c>
       <c r="AF2" t="n">
         <v>1.355870853533669e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.975</v>
       </c>
       <c r="AH2" t="n">
-        <v>351203.5656865831</v>
+        <v>456305.2767388157</v>
       </c>
     </row>
     <row r="3">
@@ -15294,28 +15294,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>281.4706299552728</v>
+        <v>357.015492839389</v>
       </c>
       <c r="AB3" t="n">
-        <v>385.1205335126082</v>
+        <v>488.4843477147888</v>
       </c>
       <c r="AC3" t="n">
-        <v>348.3651703142276</v>
+        <v>441.8640871609766</v>
       </c>
       <c r="AD3" t="n">
-        <v>281470.6299552728</v>
+        <v>357015.492839389</v>
       </c>
       <c r="AE3" t="n">
-        <v>385120.5335126081</v>
+        <v>488484.3477147889</v>
       </c>
       <c r="AF3" t="n">
         <v>1.37063400663736e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.80416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>348365.1703142276</v>
+        <v>441864.0871609766</v>
       </c>
     </row>
   </sheetData>
@@ -15591,28 +15591,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>366.5111069156894</v>
+        <v>461.9922555693497</v>
       </c>
       <c r="AB2" t="n">
-        <v>501.4766658109103</v>
+        <v>632.1181857298355</v>
       </c>
       <c r="AC2" t="n">
-        <v>453.6164366528372</v>
+        <v>571.7897132672251</v>
       </c>
       <c r="AD2" t="n">
-        <v>366511.1069156894</v>
+        <v>461992.2555693496</v>
       </c>
       <c r="AE2" t="n">
-        <v>501476.6658109103</v>
+        <v>632118.1857298355</v>
       </c>
       <c r="AF2" t="n">
         <v>1.074612502738237e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.94583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>453616.4366528372</v>
+        <v>571789.7132672251</v>
       </c>
     </row>
     <row r="3">
@@ -15697,28 +15697,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>274.3746558179399</v>
+        <v>350.7800739921366</v>
       </c>
       <c r="AB3" t="n">
-        <v>375.4115086456245</v>
+        <v>479.9527725607132</v>
       </c>
       <c r="AC3" t="n">
-        <v>339.5827611538469</v>
+        <v>434.146753565465</v>
       </c>
       <c r="AD3" t="n">
-        <v>274374.6558179399</v>
+        <v>350780.0739921366</v>
       </c>
       <c r="AE3" t="n">
-        <v>375411.5086456245</v>
+        <v>479952.7725607132</v>
       </c>
       <c r="AF3" t="n">
         <v>1.290358922244738e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.94583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>339582.7611538469</v>
+        <v>434146.753565465</v>
       </c>
     </row>
     <row r="4">
@@ -15803,28 +15803,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>274.4320635240443</v>
+        <v>350.8374816982411</v>
       </c>
       <c r="AB4" t="n">
-        <v>375.4900564017659</v>
+        <v>480.0313203168545</v>
       </c>
       <c r="AC4" t="n">
-        <v>339.6538124223846</v>
+        <v>434.2178048340027</v>
       </c>
       <c r="AD4" t="n">
-        <v>274432.0635240444</v>
+        <v>350837.4816982411</v>
       </c>
       <c r="AE4" t="n">
-        <v>375490.0564017658</v>
+        <v>480031.3203168545</v>
       </c>
       <c r="AF4" t="n">
         <v>1.293506477817886e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.90833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>339653.8124223846</v>
+        <v>434217.8048340027</v>
       </c>
     </row>
   </sheetData>
